--- a/data.xlsx
+++ b/data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3ACDB4-6D34-4A8D-852E-B33DD483A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fiq/Tools/Bot/Whatsapp_Automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398060C-1D7D-D847-A4FA-B5214E1EC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="26420" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
-  <si>
-    <t>Halloooooooooo</t>
-  </si>
   <si>
     <t>Kontak</t>
   </si>
@@ -26,20 +28,40 @@
     <t>Pesan</t>
   </si>
   <si>
-    <t>+6285200000000</t>
+    <t>☕ *Premium Indonesian Coffee at Melbourne International Coffee Expo – Visit Our Booth!* 🌍%0A%0A
+Hello,%0A
+We’re excited to invite you to *Melbourne International Coffee Expo at Melbourne Convention and Exhibition Centre (MCEC) on 20-22 March 2025!* As a leading exporter of Indonesia Specialty Coffee, we’ll be showcasing our finest coffee beans—perfect for importers, roasteries, and café owners.%0A%0A
+🔥 Why visit us? %0A
+✅ *OEM* - private label coffee solutions%0A
+✅ *Specialty Coffee* - over 40 varieties of premium Robusta and Arabica green coffee beans%0A
+✅ *Special Trade Deals* - Get exclusive offers only at the exhibition%0A%0A
+We’d love to meet you! Reply to this message to schedule a meeting or visit us at booth *Indonesia Pavilion No.14*%0A
+Looking forward to seeing you there! ☕🚀%0A%0A
+Best regards,%0A
+Indonesia Specialty Coffee%0A
+https://specialtycoffee.id/</t>
+  </si>
+  <si>
+    <t>+6285275772376</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +72,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -62,45 +91,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -113,25 +132,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A13" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A13" totalsRowShown="0">
+  <autoFilter ref="A1:A13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kontak" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kontak"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C13" totalsRowShown="0">
+  <autoFilter ref="C1:C13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pesan" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pesan"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,26 +227,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,23 +262,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -298,7 +285,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -309,31 +295,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -355,7 +341,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -413,7 +399,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -426,13 +412,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -451,117 +436,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="C13" s="2"/>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="269.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fiq/Tools/Bot/Whatsapp_Automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398060C-1D7D-D847-A4FA-B5214E1EC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="26420" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="data"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
   <si>
     <t>Kontak</t>
   </si>
@@ -28,27 +22,14 @@
     <t>Pesan</t>
   </si>
   <si>
-    <t>☕ *Premium Indonesian Coffee at Melbourne International Coffee Expo – Visit Our Booth!* 🌍%0A%0A
-Hello,%0A
-We’re excited to invite you to *Melbourne International Coffee Expo at Melbourne Convention and Exhibition Centre (MCEC) on 20-22 March 2025!* As a leading exporter of Indonesia Specialty Coffee, we’ll be showcasing our finest coffee beans—perfect for importers, roasteries, and café owners.%0A%0A
-🔥 Why visit us? %0A
-✅ *OEM* - private label coffee solutions%0A
-✅ *Specialty Coffee* - over 40 varieties of premium Robusta and Arabica green coffee beans%0A
-✅ *Special Trade Deals* - Get exclusive offers only at the exhibition%0A%0A
-We’d love to meet you! Reply to this message to schedule a meeting or visit us at booth *Indonesia Pavilion No.14*%0A
-Looking forward to seeing you there! ☕🚀%0A%0A
-Best regards,%0A
-Indonesia Specialty Coffee%0A
-https://specialtycoffee.id/</t>
-  </si>
-  <si>
-    <t>+6285275772376</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +40,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -91,63 +72,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A13" totalsRowShown="0">
-  <autoFilter ref="A1:A13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A13" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:A13"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kontak"/>
+    <tableColumn name="Kontak" id="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C13" totalsRowShown="0">
-  <autoFilter ref="C1:C13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="C1:C13" displayName="Table2" name="Table2" id="2" totalsRowShown="0">
+  <autoFilter ref="C1:C13"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pesan"/>
+    <tableColumn name="Pesan" id="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -156,10 +149,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -197,71 +190,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -289,7 +282,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -312,11 +305,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -325,13 +318,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -341,7 +334,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -350,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,10 +360,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -435,118 +428,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="92.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="269.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="C13" s="5"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="230.25" customFormat="1" s="4">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
